--- a/Group - Activity Tracker.xlsx
+++ b/Group - Activity Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\CollegeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8C233F-05ED-4EB6-84D7-FAE247AF31E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B688E-60E6-48A5-91FD-7FCC4334DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2A303D37-7A49-4C75-9A66-E6C5FD535637}"/>
   </bookViews>
@@ -497,67 +497,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,6 +511,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -583,36 +607,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,7 +625,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -951,19 +951,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -974,10 +974,10 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -986,10 +986,10 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -998,10 +998,10 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -1010,10 +1010,10 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1022,10 +1022,10 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1034,10 +1034,10 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -1046,10 +1046,10 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -1058,10 +1058,10 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -1070,10 +1070,10 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -1082,10 +1082,10 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -1094,10 +1094,10 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -1106,10 +1106,10 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -1118,10 +1118,10 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -1130,10 +1130,10 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -1142,10 +1142,10 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -1154,10 +1154,10 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -1166,10 +1166,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -1178,10 +1178,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1190,10 +1190,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -1202,10 +1202,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -1214,10 +1214,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -1226,10 +1226,10 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -1238,10 +1238,10 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1250,10 +1250,10 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -1262,10 +1262,10 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -1274,10 +1274,10 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -1286,10 +1286,10 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -1298,10 +1298,10 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -1310,31 +1310,31 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="15"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41BF92C-26E4-433F-9DD0-3DD4217574AC}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1374,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1398,550 +1398,550 @@
     </row>
     <row r="2" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="39"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="9">
         <v>45371</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="9">
         <v>45372</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="9">
         <v>45373</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="9">
         <v>45374</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="9">
         <v>45375</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="9">
         <v>45376</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="9">
         <v>45377</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="9">
         <v>45378</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="32">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="10">
         <v>2587619</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="32">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="10">
         <v>2587525</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="32">
+      <c r="C8" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="10">
         <v>2587401</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="32">
+      <c r="C9" s="10">
         <v>4</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="10">
         <v>2586874</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="32">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="10">
         <v>2586967</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="32">
+      <c r="C11" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="10">
         <v>2587221</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="32">
+      <c r="C12" s="10">
         <v>7</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="10">
         <v>2587393</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="32">
+      <c r="C13" s="10">
         <v>8</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="10">
         <v>2587808</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1992,17 +1992,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="40"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="1"/>
       <c r="H1" s="3"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2016,8 +2016,8 @@
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2029,8 +2029,8 @@
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2042,287 +2042,287 @@
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="48"/>
-      <c r="C6" s="42">
+      <c r="C6" s="14">
         <v>45371</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="15">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="43">
+      <c r="G6" s="16"/>
+      <c r="H6" s="15">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="48"/>
-      <c r="C7" s="42">
+      <c r="C7" s="14">
         <v>45372</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="17">
         <v>0.5625</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="15">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="48"/>
-      <c r="C8" s="42">
+      <c r="C8" s="14">
         <v>45373</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="17">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="15">
         <v>0.77083333333333337</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="48"/>
-      <c r="C9" s="42">
+      <c r="C9" s="14">
         <v>45374</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="15">
         <v>0.77083333333333337</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="42">
+      <c r="C10" s="14">
         <v>45375</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="17">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="15">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="15"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="42">
+      <c r="C11" s="14">
         <v>45376</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="15">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="42">
+      <c r="C12" s="14">
         <v>45377</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="17">
         <v>0.5625</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="15">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="48"/>
-      <c r="C13" s="42">
+      <c r="C13" s="14">
         <v>45378</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="15"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="15"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="15"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="15"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
